--- a/Others/BOM.xlsx
+++ b/Others/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_40pin_PICMCU" localSheetId="0">Sheet1!$A$1:$H$13</definedName>
+    <definedName name="_40pin_PICMCU" localSheetId="0">Sheet1!$A$1:$H$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -79,15 +79,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>SIL-6</t>
-  </si>
-  <si>
-    <t>ICSP</t>
-  </si>
-  <si>
     <t>P1,P2,P4,P3</t>
   </si>
   <si>
@@ -118,33 +109,12 @@
     <t>R2,R3</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>D1,D2,D3</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>SIL-7</t>
-  </si>
-  <si>
-    <t>CONN_7</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>SIL-2</t>
-  </si>
-  <si>
-    <t>JUMPER</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -152,13 +122,28 @@
   </si>
   <si>
     <t>rst</t>
+  </si>
+  <si>
+    <t>1 stck male</t>
+  </si>
+  <si>
+    <t>470E</t>
+  </si>
+  <si>
+    <t>1  RED and 2 GREEN</t>
+  </si>
+  <si>
+    <t>10pin Box header</t>
+  </si>
+  <si>
+    <t>40PIN DIP Base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,15 +152,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,18 +174,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,269 +504,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
